--- a/data/trans_orig/P16B05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{464BC1C2-B1EC-40A2-A77D-733B96B6C1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBB40E2F-D10B-4021-9860-B51A4B2F5E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86142501-1B9D-48B0-9EEE-580FE4A4B5DB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{511F5976-DD79-42C7-92A3-10D8CA0AC966}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="175">
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2007 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -85,496 +85,484 @@
     <t>94,6%</t>
   </si>
   <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>92,27%</t>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2015 (Tasa respuesta: 5,42%)</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2012 (Tasa respuesta: 5,06%)</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>Porcentajes de tranquilizantes recetados en 2015 (Tasa respuesta: 5,42%)</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>4,91%</t>
   </si>
 </sst>
 </file>
@@ -986,7 +974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC778AB-4B53-4A40-AE69-CE9087BE7BA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87FA047-D1EF-479B-BB82-457B2ABD5799}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1737,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17927962-1FB2-434B-B0DF-0764192D6BD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2857BF-87C8-41BD-9D47-5C91128E4FF3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2359,10 +2347,10 @@
         <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2365,13 @@
         <v>1024</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2392,13 +2380,13 @@
         <v>1904</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2407,13 +2395,13 @@
         <v>2928</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,7 +2476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918701BF-9648-4338-AA4E-C8B3D9720205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C00E406-D6C3-41A6-9289-EC758C0B6124}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2505,7 +2493,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2615,7 +2603,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2627,13 +2615,13 @@
         <v>122203</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>147</v>
@@ -2642,13 +2630,13 @@
         <v>160277</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,7 +2657,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2678,13 +2666,13 @@
         <v>4146</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2693,13 +2681,13 @@
         <v>4146</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2755,13 @@
         <v>59768</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -2782,10 +2770,10 @@
         <v>126907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2797,13 +2785,13 @@
         <v>186675</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2806,13 @@
         <v>4170</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2833,13 +2821,13 @@
         <v>1111</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2848,13 +2836,13 @@
         <v>5281</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,10 +2910,10 @@
         <v>13938</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2940,7 +2928,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2952,10 +2940,10 @@
         <v>27320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2973,13 +2961,13 @@
         <v>1047</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2994,7 +2982,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3003,13 +2991,13 @@
         <v>1047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3065,13 @@
         <v>111780</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>238</v>
@@ -3092,13 +3080,13 @@
         <v>262492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>345</v>
@@ -3107,13 +3095,13 @@
         <v>374272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3116,13 @@
         <v>5217</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -3143,13 +3131,13 @@
         <v>5257</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -3158,13 +3146,13 @@
         <v>10474</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBB40E2F-D10B-4021-9860-B51A4B2F5E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD0E02D1-ED49-46BE-9B43-590113D13A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{511F5976-DD79-42C7-92A3-10D8CA0AC966}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E55F155-88B0-4BE8-BAD4-B291AF81F48E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,19 +85,19 @@
     <t>94,6%</t>
   </si>
   <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,19 +115,19 @@
     <t>5,4%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -136,55 +136,55 @@
     <t>81,24%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>90,25%</t>
   </si>
   <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -193,7 +193,7 @@
     <t>93,84%</t>
   </si>
   <si>
-    <t>68,1%</t>
+    <t>66,02%</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -202,13 +202,13 @@
     <t>96,9%</t>
   </si>
   <si>
-    <t>83,4%</t>
+    <t>84,37%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>31,9%</t>
+    <t>33,98%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -217,61 +217,61 @@
     <t>3,1%</t>
   </si>
   <si>
-    <t>16,6%</t>
+    <t>15,63%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -301,7 +301,7 @@
     <t>97,89%</t>
   </si>
   <si>
-    <t>88,98%</t>
+    <t>89,03%</t>
   </si>
   <si>
     <t>97,69%</t>
@@ -310,13 +310,13 @@
     <t>99,26%</t>
   </si>
   <si>
-    <t>96,29%</t>
+    <t>95,76%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>11,02%</t>
+    <t>10,97%</t>
   </si>
   <si>
     <t>2,31%</t>
@@ -325,7 +325,7 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,71%</t>
+    <t>4,24%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -334,13 +334,13 @@
     <t>88,51%</t>
   </si>
   <si>
-    <t>64,01%</t>
+    <t>64,43%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>80,36%</t>
+    <t>77,87%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -349,43 +349,46 @@
     <t>11,49%</t>
   </si>
   <si>
-    <t>35,99%</t>
+    <t>35,57%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>19,64%</t>
+    <t>22,13%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>94,62%</t>
+    <t>94,86%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,63%</t>
+    <t>97,66%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
+    <t>98,01%</t>
+  </si>
+  <si>
     <t>99,75%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,38%</t>
+    <t>5,14%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>2,34%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -394,7 +397,10 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>Porcentajes de tranquilizantes recetados en 2015 (Tasa respuesta: 5,42%)</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>Porcentajes de tranquilizantes recetados en 2016 (Tasa respuesta: 5,42%)</t>
   </si>
   <si>
     <t>95,1%</t>
@@ -403,19 +409,19 @@
     <t>96,72%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>4,9%</t>
@@ -424,73 +430,67 @@
     <t>3,28%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>95,59%</t>
+    <t>95,68%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>94,11%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>5,89%</t>
   </si>
   <si>
     <t>93,02%</t>
   </si>
   <si>
-    <t>70,05%</t>
+    <t>65,82%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -499,13 +499,13 @@
     <t>96,31%</t>
   </si>
   <si>
-    <t>81,1%</t>
+    <t>83,61%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>29,95%</t>
+    <t>34,18%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -514,55 +514,55 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>18,9%</t>
+    <t>16,39%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>95,65%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>95,18%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>4,35%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
+    <t>4,82%</t>
   </si>
 </sst>
 </file>
@@ -974,7 +974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87FA047-D1EF-479B-BB82-457B2ABD5799}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B8B576-58A3-4D1E-8F8C-AAA2BDF0D2D0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1725,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2857BF-87C8-41BD-9D47-5C91128E4FF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AC7998-6CC4-4A7C-A9F5-B2D109F8CD97}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2347,10 +2347,10 @@
         <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2365,13 @@
         <v>1024</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2380,13 +2380,13 @@
         <v>1904</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2395,13 +2395,13 @@
         <v>2928</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,7 +2476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C00E406-D6C3-41A6-9289-EC758C0B6124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B404A7-459E-4AEA-B5BA-25D7E9037345}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2493,7 +2493,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2603,7 +2603,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2615,13 +2615,13 @@
         <v>122203</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>147</v>
@@ -2630,13 +2630,13 @@
         <v>160277</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,7 +2657,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2666,13 +2666,13 @@
         <v>4146</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2681,13 +2681,13 @@
         <v>4146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2755,13 @@
         <v>59768</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -2770,10 +2770,10 @@
         <v>126907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2785,13 +2785,13 @@
         <v>186675</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,13 +2806,13 @@
         <v>4170</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2821,13 +2821,13 @@
         <v>1111</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2836,10 +2836,10 @@
         <v>5281</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>148</v>
@@ -3086,7 +3086,7 @@
         <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>345</v>
@@ -3095,13 +3095,13 @@
         <v>374272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,10 +3134,10 @@
         <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -3146,10 +3146,10 @@
         <v>10474</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>174</v>

--- a/data/trans_orig/P16B05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD0E02D1-ED49-46BE-9B43-590113D13A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8CBDF44-E376-451A-8E20-E0BE3910A06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E55F155-88B0-4BE8-BAD4-B291AF81F48E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE7DAA02-C77C-4D6B-A314-31DF399270F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="179">
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2007 (Tasa respuesta: 3,95%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,19 +85,19 @@
     <t>94,6%</t>
   </si>
   <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,19 +115,19 @@
     <t>5,4%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -136,7 +136,7 @@
     <t>81,24%</t>
   </si>
   <si>
-    <t>59,34%</t>
+    <t>59,79%</t>
   </si>
   <si>
     <t>95,53%</t>
@@ -145,19 +145,19 @@
     <t>93,93%</t>
   </si>
   <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
   </si>
   <si>
     <t>90,25%</t>
   </si>
   <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>18,76%</t>
@@ -166,25 +166,25 @@
     <t>4,47%</t>
   </si>
   <si>
-    <t>40,66%</t>
+    <t>40,21%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -202,7 +202,7 @@
     <t>96,9%</t>
   </si>
   <si>
-    <t>84,37%</t>
+    <t>84,38%</t>
   </si>
   <si>
     <t>6,16%</t>
@@ -217,61 +217,61 @@
     <t>3,1%</t>
   </si>
   <si>
-    <t>15,63%</t>
+    <t>15,62%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -301,7 +301,7 @@
     <t>97,89%</t>
   </si>
   <si>
-    <t>89,03%</t>
+    <t>86,16%</t>
   </si>
   <si>
     <t>97,69%</t>
@@ -310,13 +310,13 @@
     <t>99,26%</t>
   </si>
   <si>
-    <t>95,76%</t>
+    <t>95,34%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>10,97%</t>
+    <t>13,84%</t>
   </si>
   <si>
     <t>2,31%</t>
@@ -325,7 +325,7 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>4,24%</t>
+    <t>4,66%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -334,13 +334,13 @@
     <t>88,51%</t>
   </si>
   <si>
-    <t>64,43%</t>
+    <t>69,31%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>77,87%</t>
+    <t>77,38%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -349,31 +349,31 @@
     <t>11,49%</t>
   </si>
   <si>
-    <t>35,57%</t>
+    <t>30,69%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>22,13%</t>
+    <t>22,62%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>94,86%</t>
+    <t>95,52%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,66%</t>
+    <t>97,34%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,01%</t>
+    <t>97,84%</t>
   </si>
   <si>
     <t>99,75%</t>
@@ -382,13 +382,13 @@
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,14%</t>
+    <t>4,48%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,34%</t>
+    <t>2,66%</t>
   </si>
   <si>
     <t>0,81%</t>
@@ -397,7 +397,7 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>2,16%</t>
   </si>
   <si>
     <t>Porcentajes de tranquilizantes recetados en 2016 (Tasa respuesta: 5,42%)</t>
@@ -409,16 +409,16 @@
     <t>96,72%</t>
   </si>
   <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>93,68%</t>
+    <t>94,19%</t>
   </si>
   <si>
     <t>99,4%</t>
@@ -430,10 +430,10 @@
     <t>3,28%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>2,52%</t>
@@ -442,55 +442,61 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>6,32%</t>
+    <t>5,81%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>95,68%</t>
+    <t>94,8%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>94,11%</t>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>4,32%</t>
+    <t>5,2%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>5,89%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>93,02%</t>
   </si>
   <si>
-    <t>65,82%</t>
+    <t>70,59%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -499,13 +505,13 @@
     <t>96,31%</t>
   </si>
   <si>
-    <t>83,61%</t>
+    <t>80,67%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>34,18%</t>
+    <t>29,41%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -514,22 +520,22 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>16,39%</t>
+    <t>19,33%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>95,73%</t>
+    <t>95,69%</t>
   </si>
   <si>
     <t>99,28%</t>
@@ -538,16 +544,19 @@
     <t>97,28%</t>
   </si>
   <si>
-    <t>95,18%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>1,96%</t>
@@ -556,13 +565,16 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>4,27%</t>
+    <t>4,31%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
 </sst>
 </file>
@@ -974,7 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B8B576-58A3-4D1E-8F8C-AAA2BDF0D2D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9487CFF-1D04-4860-99D7-773DE038AC13}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1725,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AC7998-6CC4-4A7C-A9F5-B2D109F8CD97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F57CA19-ABD0-4639-BE14-9F9F751FE187}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2476,7 +2488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B404A7-459E-4AEA-B5BA-25D7E9037345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E5C243-75F8-4574-BD9F-756488019C0A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2791,7 +2803,7 @@
         <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,13 +2818,13 @@
         <v>4170</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2821,13 +2833,13 @@
         <v>1111</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2836,13 +2848,13 @@
         <v>5281</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,10 +2922,10 @@
         <v>13938</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2928,7 +2940,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2940,10 +2952,10 @@
         <v>27320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2961,13 +2973,13 @@
         <v>1047</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2982,7 +2994,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2991,13 +3003,13 @@
         <v>1047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3077,13 @@
         <v>111780</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>238</v>
@@ -3080,13 +3092,13 @@
         <v>262492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
         <v>345</v>
@@ -3095,13 +3107,13 @@
         <v>374272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3128,13 @@
         <v>5217</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -3131,13 +3143,13 @@
         <v>5257</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -3146,13 +3158,13 @@
         <v>10474</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8CBDF44-E376-451A-8E20-E0BE3910A06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03C4662F-70E3-4374-8820-E96C386D3296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE7DAA02-C77C-4D6B-A314-31DF399270F8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8B98E6E5-04C4-4333-A86D-9EC407744945}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -986,7 +986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9487CFF-1D04-4860-99D7-773DE038AC13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E157D63-4E8B-4D3B-9AD8-DF7551805A5C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1737,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F57CA19-ABD0-4639-BE14-9F9F751FE187}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496CD4C-419D-46DF-9EAD-0C418AE3B10C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2488,7 +2488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E5C243-75F8-4574-BD9F-756488019C0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E182E5BA-A18B-4C9F-863C-15B014561949}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2609,7 +2609,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>38074</v>
+        <v>38073</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2711,7 +2711,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>38074</v>
+        <v>38073</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
